--- a/media/subscriber_for_concert_molded.xlsx
+++ b/media/subscriber_for_concert_molded.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,292 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>nom</t>
+          <t>id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>telephone</t>
+          <t>Nom</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>recevoirInfo</t>
+          <t>Telephone</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Recevoir les informations</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Molded in Christ</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>69999999</v>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Manualla Onana</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>681031781</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>Non</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Molded in Christ</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>69999999</v>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Manualla Onana</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>681031781</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Non</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Molded in Christ</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>69999999</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Non</t>
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Manualla Onana</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>681031781</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Manualla Onana</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>657066885</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Manualla Onana</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>657066885</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Manualla Onana</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>657066885</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Manualla Onana</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>657066885</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Manualla Onana</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>657066885</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Manualla Onana</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>657066885</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Manualla Onana</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>657066885</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Manualla Onana</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>657066885</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Manualla Onana</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>657066885</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Manualla Onana</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>657066885</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Manualla Onana</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>657066885</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Manualla Onana</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>657066885</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Oui</t>
         </is>
       </c>
     </row>

--- a/media/subscriber_for_concert_molded.xlsx
+++ b/media/subscriber_for_concert_molded.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,15 +461,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Manualla Onana</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>681031781</v>
+          <t>Dimitri</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>+2376777776</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Non</t>
+          <t>Oui</t>
         </is>
       </c>
     </row>
@@ -479,247 +481,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Manualla Onana</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>681031781</v>
+          <t>Dimitri</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>+2376777777</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Manualla Onana</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>681031781</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Manualla Onana</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>657066885</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Manualla Onana</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>657066885</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Manualla Onana</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>657066885</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Manualla Onana</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>657066885</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Manualla Onana</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>657066885</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Manualla Onana</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>657066885</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Manualla Onana</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>657066885</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Oui</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Manualla Onana</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>657066885</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Oui</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Manualla Onana</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>657066885</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Oui</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Manualla Onana</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>657066885</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Oui</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Manualla Onana</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>657066885</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Oui</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Manualla Onana</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>657066885</v>
-      </c>
-      <c r="D16" t="inlineStr">
         <is>
           <t>Oui</t>
         </is>

--- a/media/subscriber_for_concert_molded.xlsx
+++ b/media/subscriber_for_concert_molded.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,30 +466,10 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+2376777776</t>
+          <t>+2376777778</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>Oui</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Dimitri</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>+2376777777</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
         <is>
           <t>Oui</t>
         </is>
